--- a/213-contenu-intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
+++ b/213-contenu-intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T08:59:31+00:00</t>
+    <t>2024-12-03T09:42:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/213-contenu-intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
+++ b/213-contenu-intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T09:42:07+00:00</t>
+    <t>2024-12-05T09:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
